--- a/Energy Loss Calculation.xlsx
+++ b/Energy Loss Calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livecoventryac-my.sharepoint.com/personal/ae2785_coventry_ac_uk/Documents/Documents/Coventry Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae2785\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E012EA47-EB50-4CC4-AB6D-AE1D80D2994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C877501-93D9-4D7F-8884-FB6BFD3983E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7A4B5FE4-756B-4B64-9C12-894C5D138443}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -145,15 +145,9 @@
     <t>Load current</t>
   </si>
   <si>
-    <t>Forward transconductance</t>
-  </si>
-  <si>
     <t>Input capacitance of the gate</t>
   </si>
   <si>
-    <t>Typical threshold gate voltage</t>
-  </si>
-  <si>
     <t>Gate-drain capacitance when drain-source voltage is 1 V</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t xml:space="preserve">I_L </t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>4. The total energy loss is calculated in the 'Calculation' sheet in X2 cell (coloured in yellow)</t>
   </si>
   <si>
-    <t>1. This file is to calculate the total switching energy loss of a standalone Si device used in a DPT setup.</t>
-  </si>
-  <si>
     <t>Calcualted Energy(Joules)</t>
   </si>
   <si>
@@ -281,6 +269,33 @@
   </si>
   <si>
     <t>Other calculated parameters from Table 2 of the paper</t>
+  </si>
+  <si>
+    <t>1. This file is to calculate the total switching energy loss of a standalone MOSFET used in a DPT setup.</t>
+  </si>
+  <si>
+    <t>g_m0</t>
+  </si>
+  <si>
+    <t>Forward transconductance specified at the datasheet</t>
+  </si>
+  <si>
+    <t>An example is given for IRF520 MOSFET</t>
+  </si>
+  <si>
+    <t>This table corresponds to Table 1 of the paper</t>
+  </si>
+  <si>
+    <t>Threshold gate voltage</t>
+  </si>
+  <si>
+    <t>gm0</t>
+  </si>
+  <si>
+    <t>I_L,gm</t>
+  </si>
+  <si>
+    <t>Current specified at the forward transconductance of the datasheet</t>
   </si>
 </sst>
 </file>
@@ -362,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -385,11 +400,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,9 +438,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,19 +487,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +508,27 @@
     <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,9 +864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719BB51B-FCBD-4E7C-B26A-63F42B635F81}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -843,13 +876,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>75</v>
+      <c r="A1" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -857,17 +890,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>79</v>
+      <c r="A6" s="28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>72</v>
+      <c r="A8" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2825B0-B9A2-477A-846E-FC2778033972}">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,274 +948,302 @@
     <col min="34" max="34" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="G1" s="31" t="s">
-        <v>77</v>
-      </c>
+    <row r="1" spans="1:36" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="G1" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="AB2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="35" t="s">
+      <c r="AG2" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="38"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="29">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="29">
+        <v>4</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="AB2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG2" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH2" s="34"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="C5" s="29">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="29">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="29">
+        <v>3.6E-10</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+    </row>
+    <row r="7" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="29">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29">
+        <v>2.25E-10</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="29">
+        <v>5.6000000000000003E-10</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="29">
+        <v>7.4999999999999993E-9</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="29">
+        <v>4.4999999999999998E-9</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="G11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="I11" s="29">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="32">
-        <v>15</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="15" t="s">
+      <c r="H12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="32">
-        <v>3</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="32">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="32">
-        <v>2.7</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="I12" s="29">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G13" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="32">
-        <v>9</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="H13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="29">
+        <v>5</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="32">
-        <v>3.6E-10</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="34"/>
-    </row>
-    <row r="7" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="32">
-        <v>20</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="32">
-        <v>2.25E-10</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="G8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="32">
-        <v>5.6000000000000003E-10</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-    </row>
-    <row r="9" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="32">
-        <v>7.4999999999999993E-9</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="19"/>
-    </row>
-    <row r="10" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="32">
-        <v>4.4999999999999998E-9</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="32">
-        <v>5</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="32">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J12" s="16" t="s">
+    </row>
+    <row r="14" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="29">
+        <v>5.5</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="32">
-        <v>5</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>23</v>
-      </c>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="G15" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1186,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5DF5F2-3EF4-469D-B79E-ADEFCC0C810A}">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,35 +1265,35 @@
     <col min="25" max="25" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="33" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="7" t="s">
@@ -1278,7 +1344,7 @@
       <c r="Z1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="30" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -1293,165 +1359,195 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AG1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="2"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="37">
+      <c r="AH1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="1"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <f>'Description of the parameters'!C4</f>
-        <v>15</v>
-      </c>
-      <c r="B2" s="37">
+        <v>20</v>
+      </c>
+      <c r="B2" s="31">
         <f>'Description of the parameters'!C5</f>
         <v>36</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="32">
         <f>'Description of the parameters'!C6</f>
         <v>9</v>
       </c>
       <c r="D2" s="10">
-        <f xml:space="preserve"> 'Description of the parameters'!I13/SQRT('Description of the parameters'!I12/C2)</f>
+        <f xml:space="preserve"> AJ2*SQRT(C2/AI2)</f>
         <v>4.9453535504684023</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="31">
+        <f>AK2*SQRT(C2/AL2)</f>
+        <v>3.4538516049608896</v>
+      </c>
+      <c r="F2" s="32">
+        <f>'Description of the parameters'!C7+'Description of the parameters'!I11</f>
+        <v>25</v>
+      </c>
+      <c r="G2" s="21">
+        <f xml:space="preserve"> I2+C2/E2</f>
+        <v>6.6057865332352383</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'Description of the parameters'!I6</f>
+        <v>3.6E-10</v>
+      </c>
+      <c r="I2" s="32">
+        <f>'Description of the parameters'!I4</f>
+        <v>4</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'Description of the parameters'!I7</f>
+        <v>2.25E-10</v>
+      </c>
+      <c r="K2" s="10">
+        <f xml:space="preserve"> I2+(C2+D2)/E2</f>
+        <v>8.0376238314460871</v>
+      </c>
+      <c r="L2" s="4">
+        <f>F2*H2*LN((1+E2*AA2/(F2*H2))*(A2-I2)/(A2-K2))</f>
+        <v>1.4815763453203669E-8</v>
+      </c>
+      <c r="M2" s="4">
+        <f xml:space="preserve"> F2*H2*LN(K2/G2)</f>
+        <v>1.765687354048299E-9</v>
+      </c>
+      <c r="N2" s="10">
+        <f xml:space="preserve"> 0.25*(2*SQRT(B2-AB2+AH2) - A2*M2/(F2*J2)-K2*F2*Z2*(EXP(-M2/(F2*Z2)) - 1)/(F2*J2))^2</f>
+        <v>32.641517950732862</v>
+      </c>
+      <c r="O2" s="4">
+        <f xml:space="preserve"> 2*SQRT(N2)*J2/((A2 - G2)/F2)</f>
+        <v>4.7986655230397533E-9</v>
+      </c>
+      <c r="P2" s="4">
+        <f>M2+O2</f>
+        <v>6.5643528770880525E-9</v>
+      </c>
+      <c r="Q2" s="4">
+        <f xml:space="preserve"> F2*H2*LN((1+E2*AA2/(F2*H2))*(E2*I2+AD2)/(E2*I2))</f>
+        <v>1.6449994663717898E-8</v>
+      </c>
+      <c r="R2" s="4">
+        <f>2*SQRT(B2)*J2/(G2/F2)</f>
+        <v>1.0218313846563449E-8</v>
+      </c>
+      <c r="S2" s="4">
+        <f xml:space="preserve"> L2+P2</f>
+        <v>2.1380116330291721E-8</v>
+      </c>
+      <c r="T2" s="5">
+        <f xml:space="preserve"> Q2+R2</f>
+        <v>2.6668308510281347E-8</v>
+      </c>
+      <c r="U2" s="4">
+        <f xml:space="preserve"> 0.5*(B2-AB2)*(C2+D2)*L2+(1/3)*(1*C2+D2)*(B2-AB2)*M2+(1/6)*N2*(1*C2+D2)*M2+(1/6)*(B2-AB2)*C2*M2+(1/3)*N2*C2*M2+2/3*N2*SQRT(N2)*J2/((A2-G2)/F2)</f>
+        <v>3.1794372211965377E-6</v>
+      </c>
+      <c r="V2" s="5">
+        <f xml:space="preserve">  0.5*(B2+(AA2+AF2)*AD2/Q2)*AD2*Q2 + 1/3*B2*AD2*R2</f>
+        <v>3.910678623478636E-6</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1.2500000000000001E-10</v>
+      </c>
+      <c r="X2" s="20">
+        <f>U2+V2</f>
+        <v>7.0901158446751737E-6</v>
+      </c>
+      <c r="Y2" s="4">
+        <f xml:space="preserve"> (B2-AB2)/G2</f>
+        <v>3.7399008815119799</v>
+      </c>
+      <c r="Z2" s="11">
+        <f xml:space="preserve"> H2 + (1 + Y2)*W2</f>
+        <v>9.5248761018899752E-10</v>
+      </c>
+      <c r="AA2" s="35">
+        <f>'Description of the parameters'!I9</f>
+        <v>7.4999999999999993E-9</v>
+      </c>
+      <c r="AB2" s="5">
+        <f xml:space="preserve"> (AA2+AF2)*(C2+D2)/(L2+0)</f>
+        <v>11.295013121273566</v>
+      </c>
+      <c r="AC2" s="5">
+        <f xml:space="preserve"> (AA2+AF2)*(C2+0)/L2</f>
+        <v>7.2895332286536156</v>
+      </c>
+      <c r="AD2" s="5">
+        <f xml:space="preserve"> C2 - (AG2/J2)*G2/F2</f>
+        <v>8.3423572518023583</v>
+      </c>
+      <c r="AE2" s="5">
+        <f xml:space="preserve"> AD2/E2 + I2</f>
+        <v>6.4153780202426578</v>
+      </c>
+      <c r="AF2" s="35">
+        <f>'Description of the parameters'!I10</f>
+        <v>4.4999999999999998E-9</v>
+      </c>
+      <c r="AG2" s="35">
+        <f>'Description of the parameters'!I8</f>
+        <v>5.6000000000000003E-10</v>
+      </c>
+      <c r="AH2" s="5">
+        <f xml:space="preserve"> (AA2+AF2)*D2/M2</f>
+        <v>33.60971152087523</v>
+      </c>
+      <c r="AI2" s="5">
+        <f>'Description of the parameters'!I12</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AJ2" s="5">
+        <f>'Description of the parameters'!I13</f>
+        <v>5</v>
+      </c>
+      <c r="AK2" s="24">
         <f>'Description of the parameters'!I5</f>
         <v>2.7</v>
       </c>
-      <c r="F2" s="38">
-        <f>'Description of the parameters'!C7+'Description of the parameters'!I11</f>
-        <v>25</v>
-      </c>
-      <c r="G2" s="22">
-        <f xml:space="preserve"> I2+C2/E2</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="H2" s="40">
-        <f>'Description of the parameters'!I6</f>
-        <v>3.6E-10</v>
-      </c>
-      <c r="I2" s="38">
-        <f>'Description of the parameters'!I4</f>
-        <v>3</v>
-      </c>
-      <c r="J2" s="40">
-        <f>'Description of the parameters'!I7</f>
-        <v>2.25E-10</v>
-      </c>
-      <c r="K2" s="11">
-        <f xml:space="preserve"> I2+(C2+D2)/E2</f>
-        <v>8.1649457594327401</v>
-      </c>
-      <c r="L2" s="4">
-        <f>F2*H2*LN((1+E2*AA2/(F2*H2))*(A2-I2)/(A2-K2))</f>
-        <v>1.5673475162490933E-8</v>
-      </c>
-      <c r="M2" s="4">
-        <f xml:space="preserve"> F2*H2*LN(K2/G2)</f>
-        <v>2.2862105355977361E-9</v>
-      </c>
-      <c r="N2" s="11">
-        <f xml:space="preserve"> (B2-AB2) - A2*M2/(F2*W2)-K2*F2*Z2*(EXP(-M2/(F2*Z2)) - 1)/(F2*W2)</f>
-        <v>20.053698434603483</v>
-      </c>
-      <c r="O2" s="4">
-        <f xml:space="preserve"> 2*SQRT(N2)*J2/((A2 - G2)/F2)</f>
-        <v>5.8129644782496968E-9</v>
-      </c>
-      <c r="P2" s="4">
-        <f>M2+O2</f>
-        <v>8.0991750138474334E-9</v>
-      </c>
-      <c r="Q2" s="4">
-        <f xml:space="preserve"> F2*H2*LN((1+E2*AA2/(F2*H2))*(E2*I2+AD2)/(E2*I2))</f>
-        <v>1.6994699961762185E-8</v>
-      </c>
-      <c r="R2" s="4">
-        <f>2*SQRT(B2)*J2/(G2/F2)</f>
-        <v>1.0657894736842108E-8</v>
-      </c>
-      <c r="S2" s="4">
-        <f xml:space="preserve"> L2+P2</f>
-        <v>2.3772650176338368E-8</v>
-      </c>
-      <c r="T2" s="5">
-        <f xml:space="preserve"> Q2+R2</f>
-        <v>2.7652594698604293E-8</v>
-      </c>
-      <c r="U2" s="4">
-        <f xml:space="preserve"> 0.5*(B2-AB2)*(C2+D2)*L2+(1/3)*(1*C2+D2)*(B2-AB2)*M2+(1/6)*N2*(1*C2+D2)*M2+(1/6)*(B2-AB2)*C2*M2+(1/3)*N2*C2*M2+2/3*N2*SQRT(N2)*J2/((A2-G2)/F2)</f>
-        <v>3.4063761710748881E-6</v>
-      </c>
-      <c r="V2" s="5">
-        <f xml:space="preserve">  0.5*B2*AD2*Q2 + 1/3*B2*AD2*R2</f>
-        <v>3.6306755106183952E-6</v>
-      </c>
-      <c r="W2" s="12">
-        <v>1.2500000000000001E-10</v>
-      </c>
-      <c r="X2" s="21">
-        <f>U2+V2</f>
-        <v>7.0370516816932832E-6</v>
-      </c>
-      <c r="Y2" s="5">
-        <f xml:space="preserve"> (B2-AB2)/G2</f>
-        <v>3.9983830455354115</v>
-      </c>
-      <c r="Z2" s="12">
-        <f xml:space="preserve"> H2 + (1 + Y2)*W2</f>
-        <v>9.8479788069192647E-10</v>
-      </c>
-      <c r="AA2" s="41">
-        <f>'Description of the parameters'!I9</f>
-        <v>7.4999999999999993E-9</v>
-      </c>
-      <c r="AB2" s="5">
-        <f xml:space="preserve"> (AA2+AF2)*(C2+D2)/(L2+0)</f>
-        <v>10.676907378275727</v>
-      </c>
-      <c r="AC2" s="5">
-        <f xml:space="preserve"> (AA2+AF2)*(C2+0)/L2</f>
-        <v>6.8906224612178422</v>
-      </c>
-      <c r="AD2" s="5">
-        <f xml:space="preserve"> C2 - (AG2/J2)*G2/F2</f>
-        <v>8.3694814814814809</v>
-      </c>
-      <c r="AE2" s="5">
-        <f xml:space="preserve"> AD2/E2 + I2</f>
-        <v>6.099807956104252</v>
-      </c>
-      <c r="AF2" s="41">
-        <f>'Description of the parameters'!I10</f>
-        <v>4.4999999999999998E-9</v>
-      </c>
-      <c r="AG2" s="41">
-        <f>'Description of the parameters'!I8</f>
-        <v>5.6000000000000003E-10</v>
-      </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="S4" s="30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="S5" s="27" t="s">
+      <c r="AL2" s="24">
+        <f>'Description of the parameters'!I14</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S4" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="S6" s="42" t="s">
-        <v>80</v>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="S5" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="S6" s="36" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1460,11 +1556,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="19bc87a4-4591-49db-89a3-15645c9e9a12" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1701,27 +1798,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="19bc87a4-4591-49db-89a3-15645c9e9a12" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9F9D-D48A-46E0-9E99-CDD1F440F61D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C959DD06-C392-4FEA-9E7A-81C003976159}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dc18080a-a44b-430d-9f6a-c5790fcf76d1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19bc87a4-4591-49db-89a3-15645c9e9a12"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1746,9 +1833,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C959DD06-C392-4FEA-9E7A-81C003976159}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9F9D-D48A-46E0-9E99-CDD1F440F61D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dc18080a-a44b-430d-9f6a-c5790fcf76d1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19bc87a4-4591-49db-89a3-15645c9e9a12"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Energy Loss Calculation.xlsx
+++ b/Energy Loss Calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ae2785\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C877501-93D9-4D7F-8884-FB6BFD3983E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18812FAE-C349-432C-AA89-97E45F4F6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7A4B5FE4-756B-4B64-9C12-894C5D138443}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Current specified at the forward transconductance of the datasheet</t>
+  </si>
+  <si>
+    <t>Gate-drain capacitance at V_dd</t>
   </si>
 </sst>
 </file>
@@ -418,9 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,6 +509,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,13 +524,13 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,12 +879,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K2" t="s">
@@ -894,12 +897,12 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -915,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2825B0-B9A2-477A-846E-FC2778033972}">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,14 +971,14 @@
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="39" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="AB2" s="9" t="s">
+      <c r="AB2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="AG2" s="37" t="s">
@@ -984,106 +987,106 @@
       <c r="AH2" s="38"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>20</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>4</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>36</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>2.7</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>9</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>3.6E-10</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>67</v>
       </c>
       <c r="AG6" s="38" t="s">
@@ -1094,156 +1097,170 @@
       <c r="AJ6" s="38"/>
     </row>
     <row r="7" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>20</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>2.25E-10</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="G8" s="12" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="G8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>5.6000000000000003E-10</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
     </row>
     <row r="9" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>7.4999999999999993E-9</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="18"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>4.4999999999999998E-9</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>5</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="29">
+      <c r="I12" s="28">
         <v>9.1999999999999993</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="29">
+      <c r="I13" s="28">
         <v>5</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="28">
         <v>5.5</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="43">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="G16" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AG6:AJ6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1254,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5DF5F2-3EF4-469D-B79E-ADEFCC0C810A}">
   <dimension ref="A1:AM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,37 +1283,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1305,7 +1322,7 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1332,19 +1349,19 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="29" t="s">
         <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -1359,194 +1376,194 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="29" t="s">
         <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="29" t="s">
         <v>84</v>
       </c>
       <c r="AM1" s="1"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
+      <c r="A2" s="30">
         <f>'Description of the parameters'!C4</f>
         <v>20</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <f>'Description of the parameters'!C5</f>
         <v>36</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="31">
         <f>'Description of the parameters'!C6</f>
         <v>9</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <f xml:space="preserve"> AJ2*SQRT(C2/AI2)</f>
         <v>4.9453535504684023</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="41">
         <f>AK2*SQRT(C2/AL2)</f>
         <v>3.4538516049608896</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <f>'Description of the parameters'!C7+'Description of the parameters'!I11</f>
         <v>25</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="20">
         <f xml:space="preserve"> I2+C2/E2</f>
         <v>6.6057865332352383</v>
       </c>
-      <c r="H2" s="34">
+      <c r="H2" s="33">
         <f>'Description of the parameters'!I6</f>
         <v>3.6E-10</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="31">
         <f>'Description of the parameters'!I4</f>
         <v>4</v>
       </c>
-      <c r="J2" s="34">
+      <c r="J2" s="33">
         <f>'Description of the parameters'!I7</f>
         <v>2.25E-10</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <f xml:space="preserve"> I2+(C2+D2)/E2</f>
         <v>8.0376238314460871</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="3">
         <f>F2*H2*LN((1+E2*AA2/(F2*H2))*(A2-I2)/(A2-K2))</f>
         <v>1.4815763453203669E-8</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="3">
         <f xml:space="preserve"> F2*H2*LN(K2/G2)</f>
         <v>1.765687354048299E-9</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <f xml:space="preserve"> 0.25*(2*SQRT(B2-AB2+AH2) - A2*M2/(F2*J2)-K2*F2*Z2*(EXP(-M2/(F2*Z2)) - 1)/(F2*J2))^2</f>
-        <v>32.641517950732862</v>
-      </c>
-      <c r="O2" s="4">
+        <v>32.151475201568473</v>
+      </c>
+      <c r="O2" s="3">
         <f xml:space="preserve"> 2*SQRT(N2)*J2/((A2 - G2)/F2)</f>
-        <v>4.7986655230397533E-9</v>
-      </c>
-      <c r="P2" s="4">
+        <v>4.7625084422153882E-9</v>
+      </c>
+      <c r="P2" s="3">
         <f>M2+O2</f>
-        <v>6.5643528770880525E-9</v>
-      </c>
-      <c r="Q2" s="4">
+        <v>6.5281957962636874E-9</v>
+      </c>
+      <c r="Q2" s="3">
         <f xml:space="preserve"> F2*H2*LN((1+E2*AA2/(F2*H2))*(E2*I2+AD2)/(E2*I2))</f>
         <v>1.6449994663717898E-8</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <f>2*SQRT(B2)*J2/(G2/F2)</f>
         <v>1.0218313846563449E-8</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <f xml:space="preserve"> L2+P2</f>
-        <v>2.1380116330291721E-8</v>
-      </c>
-      <c r="T2" s="5">
+        <v>2.1343959249467355E-8</v>
+      </c>
+      <c r="T2" s="4">
         <f xml:space="preserve"> Q2+R2</f>
         <v>2.6668308510281347E-8</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <f xml:space="preserve"> 0.5*(B2-AB2)*(C2+D2)*L2+(1/3)*(1*C2+D2)*(B2-AB2)*M2+(1/6)*N2*(1*C2+D2)*M2+(1/6)*(B2-AB2)*C2*M2+(1/3)*N2*C2*M2+2/3*N2*SQRT(N2)*J2/((A2-G2)/F2)</f>
-        <v>3.1794372211965377E-6</v>
-      </c>
-      <c r="V2" s="5">
+        <v>3.1736590180168382E-6</v>
+      </c>
+      <c r="V2" s="4">
         <f xml:space="preserve">  0.5*(B2+(AA2+AF2)*AD2/Q2)*AD2*Q2 + 1/3*B2*AD2*R2</f>
         <v>3.910678623478636E-6</v>
       </c>
-      <c r="W2" s="11">
-        <v>1.2500000000000001E-10</v>
-      </c>
-      <c r="X2" s="20">
+      <c r="W2" s="34">
+        <v>2.5000000000000001E-11</v>
+      </c>
+      <c r="X2" s="19">
         <f>U2+V2</f>
-        <v>7.0901158446751737E-6</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>7.0843376414954742E-6</v>
+      </c>
+      <c r="Y2" s="3">
         <f xml:space="preserve"> (B2-AB2)/G2</f>
         <v>3.7399008815119799</v>
       </c>
-      <c r="Z2" s="11">
+      <c r="Z2" s="10">
         <f xml:space="preserve"> H2 + (1 + Y2)*W2</f>
-        <v>9.5248761018899752E-10</v>
-      </c>
-      <c r="AA2" s="35">
+        <v>4.7849752203779952E-10</v>
+      </c>
+      <c r="AA2" s="34">
         <f>'Description of the parameters'!I9</f>
         <v>7.4999999999999993E-9</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <f xml:space="preserve"> (AA2+AF2)*(C2+D2)/(L2+0)</f>
         <v>11.295013121273566</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="4">
         <f xml:space="preserve"> (AA2+AF2)*(C2+0)/L2</f>
         <v>7.2895332286536156</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="4">
         <f xml:space="preserve"> C2 - (AG2/J2)*G2/F2</f>
         <v>8.3423572518023583</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="4">
         <f xml:space="preserve"> AD2/E2 + I2</f>
         <v>6.4153780202426578</v>
       </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="34">
         <f>'Description of the parameters'!I10</f>
         <v>4.4999999999999998E-9</v>
       </c>
-      <c r="AG2" s="35">
+      <c r="AG2" s="34">
         <f>'Description of the parameters'!I8</f>
         <v>5.6000000000000003E-10</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="4">
         <f xml:space="preserve"> (AA2+AF2)*D2/M2</f>
         <v>33.60971152087523</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="34">
         <f>'Description of the parameters'!I12</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="34">
         <f>'Description of the parameters'!I13</f>
         <v>5</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="30">
         <f>'Description of the parameters'!I5</f>
         <v>2.7</v>
       </c>
-      <c r="AL2" s="24">
+      <c r="AL2" s="30">
         <f>'Description of the parameters'!I14</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="S5" s="41" t="s">
+      <c r="S5" s="36" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:39" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="35" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1556,12 +1573,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="19bc87a4-4591-49db-89a3-15645c9e9a12" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,17 +1814,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="19bc87a4-4591-49db-89a3-15645c9e9a12" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C959DD06-C392-4FEA-9E7A-81C003976159}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9F9D-D48A-46E0-9E99-CDD1F440F61D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="dc18080a-a44b-430d-9f6a-c5790fcf76d1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="19bc87a4-4591-49db-89a3-15645c9e9a12"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1833,18 +1859,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F8A9F9D-D48A-46E0-9E99-CDD1F440F61D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C959DD06-C392-4FEA-9E7A-81C003976159}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dc18080a-a44b-430d-9f6a-c5790fcf76d1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="19bc87a4-4591-49db-89a3-15645c9e9a12"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>